--- a/datenRF4/AFL/i=24,42 Fremdlüfter, Abtriebswelle=14/Prozesse_Stückliste_L2_S4_i24,42_Fremdlüfter.xlsx
+++ b/datenRF4/AFL/i=24,42 Fremdlüfter, Abtriebswelle=14/Prozesse_Stückliste_L2_S4_i24,42_Fremdlüfter.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="125">
   <si>
     <t>Sequenz</t>
   </si>
@@ -484,7 +484,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -868,11 +868,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -979,9 +1029,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1009,8 +1056,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1050,8 +1098,40 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1358,7 +1438,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1369,10 +1449,10 @@
   <dimension ref="A1:T93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="K85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="K28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G79" sqref="G79"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -1399,7 +1479,7 @@
       <c r="D1" s="103"/>
       <c r="E1" s="104"/>
       <c r="F1" s="104"/>
-      <c r="G1" s="93"/>
+      <c r="G1" s="92"/>
       <c r="H1" s="105" t="s">
         <v>122</v>
       </c>
@@ -1456,7 +1536,7 @@
       <c r="C3" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="82" t="s">
         <v>68</v>
       </c>
       <c r="E3" s="28" t="s">
@@ -1465,7 +1545,7 @@
       <c r="F3" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="95" t="s">
+      <c r="G3" s="93" t="s">
         <v>120</v>
       </c>
       <c r="H3" s="27" t="s">
@@ -1557,7 +1637,7 @@
       <c r="E5" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="84" t="s">
+      <c r="F5" s="83" t="s">
         <v>97</v>
       </c>
       <c r="G5" s="15"/>
@@ -1609,7 +1689,7 @@
       <c r="E6" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="84" t="s">
         <v>95</v>
       </c>
       <c r="G6" s="68"/>
@@ -1631,7 +1711,9 @@
       <c r="A7" s="16">
         <v>1</v>
       </c>
-      <c r="B7" s="64"/>
+      <c r="B7" s="64">
+        <v>3</v>
+      </c>
       <c r="C7" s="17">
         <v>1</v>
       </c>
@@ -1641,7 +1723,7 @@
       <c r="E7" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="85" t="s">
         <v>96</v>
       </c>
       <c r="G7" s="66">
@@ -1663,7 +1745,7 @@
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1">
       <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
       <c r="E8" s="40"/>
@@ -1706,7 +1788,7 @@
       <c r="E9" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="84" t="s">
+      <c r="F9" s="83" t="s">
         <v>118</v>
       </c>
       <c r="G9" s="15"/>
@@ -1758,7 +1840,7 @@
       <c r="E10" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="87" t="s">
+      <c r="F10" s="86" t="s">
         <v>97</v>
       </c>
       <c r="G10" s="5"/>
@@ -1792,7 +1874,7 @@
       <c r="E11" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="85" t="s">
+      <c r="F11" s="84" t="s">
         <v>95</v>
       </c>
       <c r="G11" s="68"/>
@@ -1814,20 +1896,22 @@
       <c r="A12" s="69">
         <v>1</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="71">
-        <v>1</v>
-      </c>
-      <c r="D12" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="72" t="s">
+      <c r="B12" s="112">
+        <v>3</v>
+      </c>
+      <c r="C12" s="70">
+        <v>1</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="88" t="s">
+      <c r="F12" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="73">
+      <c r="G12" s="72">
         <v>23344</v>
       </c>
       <c r="H12" s="40"/>
@@ -1848,7 +1932,9 @@
       <c r="A13" s="10">
         <v>2</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="113">
+        <v>3</v>
+      </c>
       <c r="C13" s="12">
         <v>2</v>
       </c>
@@ -1858,7 +1944,7 @@
       <c r="E13" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="89" t="s">
+      <c r="F13" s="88" t="s">
         <v>73</v>
       </c>
       <c r="G13" s="14">
@@ -2123,7 +2209,7 @@
       <c r="E23" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="84" t="s">
+      <c r="F23" s="83" t="s">
         <v>118</v>
       </c>
       <c r="G23" s="15"/>
@@ -2175,7 +2261,7 @@
       <c r="E24" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="87" t="s">
+      <c r="F24" s="86" t="s">
         <v>97</v>
       </c>
       <c r="G24" s="5"/>
@@ -2209,7 +2295,7 @@
       <c r="E25" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="85" t="s">
+      <c r="F25" s="84" t="s">
         <v>95</v>
       </c>
       <c r="G25" s="68"/>
@@ -2231,20 +2317,22 @@
       <c r="A26" s="69">
         <v>1</v>
       </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="71">
-        <v>1</v>
-      </c>
-      <c r="D26" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="72" t="s">
+      <c r="B26" s="112">
+        <v>3</v>
+      </c>
+      <c r="C26" s="70">
+        <v>1</v>
+      </c>
+      <c r="D26" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="88" t="s">
+      <c r="F26" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="G26" s="73">
+      <c r="G26" s="72">
         <v>23355</v>
       </c>
       <c r="H26" s="40"/>
@@ -2265,7 +2353,9 @@
       <c r="A27" s="10">
         <v>2</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="113">
+        <v>3</v>
+      </c>
       <c r="C27" s="12">
         <v>2</v>
       </c>
@@ -2275,7 +2365,7 @@
       <c r="E27" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="89" t="s">
+      <c r="F27" s="88" t="s">
         <v>73</v>
       </c>
       <c r="G27" s="14">
@@ -2380,8 +2470,8 @@
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
       <c r="H31" s="40">
         <v>7</v>
       </c>
@@ -2449,7 +2539,7 @@
       <c r="E33" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="F33" s="84" t="s">
+      <c r="F33" s="83" t="s">
         <v>118</v>
       </c>
       <c r="G33" s="15"/>
@@ -2501,7 +2591,7 @@
       <c r="E34" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F34" s="87" t="s">
+      <c r="F34" s="86" t="s">
         <v>97</v>
       </c>
       <c r="G34" s="5"/>
@@ -2519,26 +2609,26 @@
       <c r="S34" s="40"/>
       <c r="T34" s="41"/>
     </row>
-    <row r="35" spans="1:20">
-      <c r="A35" s="2">
+    <row r="35" spans="1:20" ht="15" thickBot="1">
+      <c r="A35" s="117">
         <v>6</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="118">
         <v>2</v>
       </c>
-      <c r="C35" s="4">
-        <v>1</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="21" t="s">
+      <c r="C35" s="119">
+        <v>1</v>
+      </c>
+      <c r="D35" s="119" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="120" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="87" t="s">
+      <c r="F35" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="G35" s="5"/>
+      <c r="G35" s="122"/>
       <c r="H35" s="40"/>
       <c r="I35" s="40"/>
       <c r="J35" s="49"/>
@@ -2554,23 +2644,25 @@
       <c r="T35" s="41"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" s="69">
-        <v>1</v>
-      </c>
-      <c r="B36" s="70"/>
-      <c r="C36" s="71">
-        <v>1</v>
-      </c>
-      <c r="D36" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="72" t="s">
+      <c r="A36" s="7">
+        <v>1</v>
+      </c>
+      <c r="B36" s="123">
+        <v>3</v>
+      </c>
+      <c r="C36" s="9">
+        <v>1</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="124" t="s">
         <v>94</v>
       </c>
-      <c r="F36" s="88" t="s">
+      <c r="F36" s="125" t="s">
         <v>96</v>
       </c>
-      <c r="G36" s="94">
+      <c r="G36" s="126">
         <v>23355</v>
       </c>
       <c r="H36" s="40"/>
@@ -2588,14 +2680,22 @@
       <c r="T36" s="41"/>
     </row>
     <row r="37" spans="1:20" ht="15" thickBot="1">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="109" t="s">
+      <c r="A37" s="31">
+        <v>2</v>
+      </c>
+      <c r="B37" s="115">
+        <v>3</v>
+      </c>
+      <c r="C37" s="32">
+        <v>6</v>
+      </c>
+      <c r="D37" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="F37" s="92" t="s">
+      <c r="F37" s="91" t="s">
         <v>88</v>
       </c>
       <c r="G37" s="36">
@@ -2652,7 +2752,7 @@
       <c r="E39" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="F39" s="84" t="s">
+      <c r="F39" s="83" t="s">
         <v>118</v>
       </c>
       <c r="G39" s="15"/>
@@ -2700,7 +2800,7 @@
       <c r="E40" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F40" s="87" t="s">
+      <c r="F40" s="86" t="s">
         <v>97</v>
       </c>
       <c r="G40" s="5"/>
@@ -2734,7 +2834,7 @@
       <c r="E41" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="F41" s="85" t="s">
+      <c r="F41" s="84" t="s">
         <v>95</v>
       </c>
       <c r="G41" s="68"/>
@@ -2756,20 +2856,22 @@
       <c r="A42" s="69">
         <v>1</v>
       </c>
-      <c r="B42" s="70"/>
-      <c r="C42" s="71">
-        <v>1</v>
-      </c>
-      <c r="D42" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="E42" s="72" t="s">
+      <c r="B42" s="112">
+        <v>3</v>
+      </c>
+      <c r="C42" s="70">
+        <v>1</v>
+      </c>
+      <c r="D42" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="F42" s="88" t="s">
+      <c r="F42" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="73">
+      <c r="G42" s="72">
         <v>23355</v>
       </c>
       <c r="H42" s="40"/>
@@ -2787,14 +2889,22 @@
       <c r="T42" s="41"/>
     </row>
     <row r="43" spans="1:20" ht="15" thickBot="1">
-      <c r="A43" s="31"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
+      <c r="A43" s="31">
+        <v>2</v>
+      </c>
+      <c r="B43" s="115">
+        <v>3</v>
+      </c>
+      <c r="C43" s="32">
+        <v>6</v>
+      </c>
+      <c r="D43" s="94" t="s">
+        <v>71</v>
+      </c>
       <c r="E43" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="F43" s="92" t="s">
+      <c r="F43" s="91" t="s">
         <v>88</v>
       </c>
       <c r="G43" s="36">
@@ -2909,7 +3019,7 @@
       <c r="E47" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="F47" s="84" t="s">
+      <c r="F47" s="83" t="s">
         <v>118</v>
       </c>
       <c r="G47" s="15"/>
@@ -2963,7 +3073,7 @@
       <c r="E48" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F48" s="87" t="s">
+      <c r="F48" s="86" t="s">
         <v>97</v>
       </c>
       <c r="G48" s="5"/>
@@ -2997,7 +3107,7 @@
       <c r="E49" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="F49" s="85" t="s">
+      <c r="F49" s="84" t="s">
         <v>95</v>
       </c>
       <c r="G49" s="68"/>
@@ -3019,20 +3129,22 @@
       <c r="A50" s="69">
         <v>1</v>
       </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="71">
-        <v>1</v>
-      </c>
-      <c r="D50" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="72" t="s">
+      <c r="B50" s="112">
+        <v>3</v>
+      </c>
+      <c r="C50" s="70">
+        <v>1</v>
+      </c>
+      <c r="D50" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="F50" s="88" t="s">
+      <c r="F50" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="G50" s="73">
+      <c r="G50" s="72">
         <v>23355</v>
       </c>
       <c r="H50" s="40"/>
@@ -3050,14 +3162,22 @@
       <c r="T50" s="41"/>
     </row>
     <row r="51" spans="1:20" ht="15" thickBot="1">
-      <c r="A51" s="31"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="110" t="s">
+      <c r="A51" s="31">
+        <v>2</v>
+      </c>
+      <c r="B51" s="115">
+        <v>3</v>
+      </c>
+      <c r="C51" s="32">
+        <v>6</v>
+      </c>
+      <c r="D51" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="F51" s="92" t="s">
+      <c r="F51" s="91" t="s">
         <v>88</v>
       </c>
       <c r="G51" s="36">
@@ -3219,7 +3339,7 @@
       <c r="E58" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="F58" s="84" t="s">
+      <c r="F58" s="83" t="s">
         <v>118</v>
       </c>
       <c r="G58" s="15"/>
@@ -3271,7 +3391,7 @@
       <c r="E59" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F59" s="87" t="s">
+      <c r="F59" s="86" t="s">
         <v>97</v>
       </c>
       <c r="G59" s="5"/>
@@ -3305,7 +3425,7 @@
       <c r="E60" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F60" s="87" t="s">
+      <c r="F60" s="86" t="s">
         <v>95</v>
       </c>
       <c r="G60" s="5"/>
@@ -3324,14 +3444,22 @@
       <c r="T60" s="41"/>
     </row>
     <row r="61" spans="1:20" ht="15" thickBot="1">
-      <c r="A61" s="31"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
+      <c r="A61" s="31">
+        <v>7</v>
+      </c>
+      <c r="B61" s="116">
+        <v>2</v>
+      </c>
+      <c r="C61" s="32">
+        <v>1</v>
+      </c>
+      <c r="D61" s="94" t="s">
+        <v>71</v>
+      </c>
       <c r="E61" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="F61" s="85" t="s">
+      <c r="F61" s="84" t="s">
         <v>95</v>
       </c>
       <c r="G61" s="68"/>
@@ -3350,17 +3478,25 @@
       <c r="T61" s="41"/>
     </row>
     <row r="62" spans="1:20" ht="15" thickBot="1">
-      <c r="A62" s="74"/>
-      <c r="B62" s="75"/>
-      <c r="C62" s="75"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="76" t="s">
+      <c r="A62" s="73">
+        <v>8</v>
+      </c>
+      <c r="B62" s="74">
+        <v>3</v>
+      </c>
+      <c r="C62" s="74">
+        <v>1</v>
+      </c>
+      <c r="D62" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="F62" s="90" t="s">
+      <c r="F62" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="G62" s="77">
+      <c r="G62" s="76">
         <v>21131</v>
       </c>
       <c r="H62" s="40"/>
@@ -3443,7 +3579,7 @@
       <c r="E65" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="F65" s="84" t="s">
+      <c r="F65" s="83" t="s">
         <v>118</v>
       </c>
       <c r="G65" s="15"/>
@@ -3495,7 +3631,7 @@
       <c r="E66" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F66" s="87" t="s">
+      <c r="F66" s="86" t="s">
         <v>97</v>
       </c>
       <c r="G66" s="5"/>
@@ -3529,7 +3665,7 @@
       <c r="E67" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F67" s="87" t="s">
+      <c r="F67" s="86" t="s">
         <v>95</v>
       </c>
       <c r="G67" s="5"/>
@@ -3548,14 +3684,22 @@
       <c r="T67" s="41"/>
     </row>
     <row r="68" spans="1:20" ht="15" thickBot="1">
-      <c r="A68" s="31"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
+      <c r="A68" s="31">
+        <v>7</v>
+      </c>
+      <c r="B68" s="116">
+        <v>2</v>
+      </c>
+      <c r="C68" s="32">
+        <v>1</v>
+      </c>
+      <c r="D68" s="94" t="s">
+        <v>71</v>
+      </c>
       <c r="E68" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="85" t="s">
+      <c r="F68" s="84" t="s">
         <v>99</v>
       </c>
       <c r="G68" s="68"/>
@@ -3574,17 +3718,25 @@
       <c r="T68" s="41"/>
     </row>
     <row r="69" spans="1:20">
-      <c r="A69" s="78"/>
-      <c r="B69" s="79"/>
-      <c r="C69" s="79"/>
-      <c r="D69" s="79"/>
-      <c r="E69" s="80" t="s">
+      <c r="A69" s="77">
+        <v>1</v>
+      </c>
+      <c r="B69" s="78">
+        <v>3</v>
+      </c>
+      <c r="C69" s="78">
+        <v>1</v>
+      </c>
+      <c r="D69" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="E69" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="F69" s="91" t="s">
+      <c r="F69" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="G69" s="81">
+      <c r="G69" s="80">
         <v>21131</v>
       </c>
       <c r="H69" s="40"/>
@@ -3602,14 +3754,22 @@
       <c r="T69" s="41"/>
     </row>
     <row r="70" spans="1:20" ht="15" thickBot="1">
-      <c r="A70" s="31"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
+      <c r="A70" s="31">
+        <v>1</v>
+      </c>
+      <c r="B70" s="32">
+        <v>3</v>
+      </c>
+      <c r="C70" s="32">
+        <v>4</v>
+      </c>
+      <c r="D70" s="94" t="s">
+        <v>71</v>
+      </c>
       <c r="E70" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="F70" s="92" t="s">
+      <c r="F70" s="91" t="s">
         <v>101</v>
       </c>
       <c r="G70" s="36">
@@ -3732,7 +3892,7 @@
       <c r="E74" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="F74" s="84" t="s">
+      <c r="F74" s="83" t="s">
         <v>118</v>
       </c>
       <c r="G74" s="15"/>
@@ -3784,7 +3944,7 @@
       <c r="E75" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F75" s="87" t="s">
+      <c r="F75" s="86" t="s">
         <v>97</v>
       </c>
       <c r="G75" s="5"/>
@@ -3818,7 +3978,7 @@
       <c r="E76" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F76" s="87" t="s">
+      <c r="F76" s="86" t="s">
         <v>95</v>
       </c>
       <c r="G76" s="5"/>
@@ -3837,14 +3997,22 @@
       <c r="T76" s="41"/>
     </row>
     <row r="77" spans="1:20" ht="15" thickBot="1">
-      <c r="A77" s="31"/>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
+      <c r="A77" s="31">
+        <v>7</v>
+      </c>
+      <c r="B77" s="116">
+        <v>2</v>
+      </c>
+      <c r="C77" s="32">
+        <v>1</v>
+      </c>
+      <c r="D77" s="94" t="s">
+        <v>71</v>
+      </c>
       <c r="E77" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="F77" s="85" t="s">
+      <c r="F77" s="84" t="s">
         <v>99</v>
       </c>
       <c r="G77" s="68"/>
@@ -3863,17 +4031,25 @@
       <c r="T77" s="41"/>
     </row>
     <row r="78" spans="1:20">
-      <c r="A78" s="78"/>
-      <c r="B78" s="79"/>
-      <c r="C78" s="79"/>
-      <c r="D78" s="79"/>
-      <c r="E78" s="80" t="s">
+      <c r="A78" s="77">
+        <v>1</v>
+      </c>
+      <c r="B78" s="78">
+        <v>3</v>
+      </c>
+      <c r="C78" s="78">
+        <v>1</v>
+      </c>
+      <c r="D78" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="E78" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="F78" s="91" t="s">
+      <c r="F78" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="G78" s="81">
+      <c r="G78" s="80">
         <v>21131</v>
       </c>
       <c r="H78" s="40"/>
@@ -3891,14 +4067,22 @@
       <c r="T78" s="41"/>
     </row>
     <row r="79" spans="1:20" ht="15" thickBot="1">
-      <c r="A79" s="31"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
+      <c r="A79" s="31">
+        <v>2</v>
+      </c>
+      <c r="B79" s="32">
+        <v>3</v>
+      </c>
+      <c r="C79" s="32">
+        <v>4</v>
+      </c>
+      <c r="D79" s="94" t="s">
+        <v>71</v>
+      </c>
       <c r="E79" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="F79" s="92" t="s">
+      <c r="F79" s="91" t="s">
         <v>101</v>
       </c>
       <c r="G79" s="36">
@@ -4079,7 +4263,7 @@
       <c r="E85" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="F85" s="84" t="s">
+      <c r="F85" s="83" t="s">
         <v>118</v>
       </c>
       <c r="G85" s="15"/>
@@ -4131,7 +4315,7 @@
       <c r="E86" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F86" s="87" t="s">
+      <c r="F86" s="86" t="s">
         <v>97</v>
       </c>
       <c r="G86" s="5"/>
@@ -4165,7 +4349,7 @@
       <c r="E87" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F87" s="87" t="s">
+      <c r="F87" s="86" t="s">
         <v>95</v>
       </c>
       <c r="G87" s="5"/>
@@ -4184,14 +4368,22 @@
       <c r="T87" s="41"/>
     </row>
     <row r="88" spans="1:20">
-      <c r="A88" s="34"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
+      <c r="A88" s="34">
+        <v>7</v>
+      </c>
+      <c r="B88" s="30">
+        <v>2</v>
+      </c>
+      <c r="C88" s="30">
+        <v>1</v>
+      </c>
+      <c r="D88" s="109" t="s">
+        <v>71</v>
+      </c>
       <c r="E88" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F88" s="87" t="s">
+      <c r="F88" s="86" t="s">
         <v>99</v>
       </c>
       <c r="G88" s="5"/>
@@ -4210,14 +4402,22 @@
       <c r="T88" s="41"/>
     </row>
     <row r="89" spans="1:20" ht="15" thickBot="1">
-      <c r="A89" s="31"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
+      <c r="A89" s="31">
+        <v>8</v>
+      </c>
+      <c r="B89" s="32">
+        <v>2</v>
+      </c>
+      <c r="C89" s="32">
+        <v>1</v>
+      </c>
+      <c r="D89" s="94" t="s">
+        <v>71</v>
+      </c>
       <c r="E89" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="F89" s="92" t="s">
+      <c r="F89" s="91" t="s">
         <v>102</v>
       </c>
       <c r="G89" s="36">
